--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmca\Desktop\open c\EmmaCariot_5_18062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC510201-EE74-4C0C-AC07-817F99CDCB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF69DA-9DB2-4D6E-99DD-3286BD16DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -109,7 +109,94 @@
     <t>addToLocalStorage</t>
   </si>
   <si>
-    <t xml:space="preserve">La fonction créé un tableau de produits dans lequel se trouve tous les oursons selectionnés. Si le LS existe déjà, on ajoute les oursons selectionnés en plus. S'il n'existe pas, on le créé. </t>
+    <t xml:space="preserve">La fonction créé un tableau de produits dans lequel se trouve tous les oursons selectionnés. Si le LS existe déjà, on ajoute les oursons selectionnés en plus. S'il n'existe pas, on le créé. Sert aussi à convertir la valeur JS en chaîne de caractère JSON. Ce qui est essentiel pour le local storage.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouvrir la console puis aller dans Application. Regarder si on a tous les id des oursons selectionnés. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La gestion de la quantité. Il faut que les mêmes id soient dans le même tableau. Il ne faut pas que ça se transforme en un id un produit. </t>
+  </si>
+  <si>
+    <t>cart.js</t>
+  </si>
+  <si>
+    <t>13 à 50</t>
+  </si>
+  <si>
+    <t>displayCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction créé des divs pour afficher toutes les précisions du panier. Création de section pour le nom de l'ours, le prix la quantité et l'option de supprimer le produit. </t>
+  </si>
+  <si>
+    <t>Regarder sur la page panier si tout se met au bon endroit. Et si plusieurs mêmes oursons sont selectionés, qu'ils se mettent sur la même ligne. Regarder si le bouton supprimer, supprime bien du local storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que le même produit s'affiche sur plusieurs lignes car il a été sélectionné plusieurs fois. Ou alors qu'un produit ne se supprime pas. </t>
+  </si>
+  <si>
+    <t>52 à 59</t>
+  </si>
+  <si>
+    <t>displayTotal</t>
+  </si>
+  <si>
+    <t>Fonction qui permet d'afficher le total de la commande. C'est dynamique donc il s'actualise lorsqu'un produit est ajouté ou supprimé. On vient multiplier les "price" des oursons avec lesquels on a travaillé dans displayCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire un rapide calcul et se rendre compte si la multiplcation a bien été faite. Faire les tests avec le bouton supprimer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'il y a plusieurs mêmes oursons selcetionnés, que le total ne se fasse que sur un seul. </t>
+  </si>
+  <si>
+    <t>61 à 67</t>
+  </si>
+  <si>
+    <t>clearCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction sert à vider le panier. On fait donc un addvenlistener sur le bouton "vider le panier". Et tous les articles précedemment sélectionnés doivent être supprimés. </t>
+  </si>
+  <si>
+    <t>Voir que la page de panier s'actualise sans aucun produit. Et regarder si le LS est bien vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que le panier se vide en théorie sur la page. Mais que le Local storage reste plein. </t>
+  </si>
+  <si>
+    <t>69 à 118</t>
+  </si>
+  <si>
+    <t>postRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction sert à faire une requête post pour envoyer les données de contact et d'id à L'API. On récupère les informations du Dom qui sont demandées. L'ortographe doit bien être similaire à celle demandée par le back end. Cf les fichiers backend. On créé un objet de contact avec toutes les informations du client. Puis on créé un tableau avec les id des oursons. On utilise par la suite la méthode POST avecc FETCH. Cette requête contient le contact du client et les id des oursons. Ceci est contenu dans l'objet options. Puis on redirige vers la page de confirmation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aller dans la console et se rendre compte de si tous les tableaux ont bien été crées. Si tout est conforme, la page de confirmation doit afficher un numéro de commande. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire très attention à l'ortographe des obejts et des valeurs. Sinon la requête est mauvaise. Et la fin du processus ne peut pas se faire. </t>
+  </si>
+  <si>
+    <t>confirmation.js</t>
+  </si>
+  <si>
+    <t>1 à 9</t>
+  </si>
+  <si>
+    <t>displayOrderId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction affiche le numéro d'id de la commande. Et vide le Local Storage pour recommencer le processus d'achat. Après la requête post, le backend nous renvoie l'id de la commande si les objets envoyés étaient bons. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afficher sur une page une div qui contient l'orderID. S'il y a marqué undifined c'est qu'il y a un problème. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que le local storage ne se vide pas et que cela perturbe le prochain processus d'achat. </t>
   </si>
 </sst>
 </file>
@@ -400,9 +487,9 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,33 +640,112 @@
       <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="137.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>

--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmca\Desktop\open c\EmmaCariot_5_18062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF69DA-9DB2-4D6E-99DD-3286BD16DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F245623-7442-4706-840D-3C485B5CEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -43,33 +43,12 @@
     <t>index.js</t>
   </si>
   <si>
-    <t>7 à 15</t>
-  </si>
-  <si>
     <t>getArticles</t>
   </si>
   <si>
-    <t xml:space="preserve">La fonction doit vérifier si l'utilisateur est bien sur le port 3000. Elle l'avertit par un message si "node server" n'a pas été lancé.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lancer l'index en étant sur le port 3000 et en ne l'étant pas comme ça on voi si le message s'affiche correctement. </t>
-  </si>
-  <si>
-    <t>Problème avec internet. Donc le problème ne vient pas du script</t>
-  </si>
-  <si>
-    <t>18 à 53</t>
-  </si>
-  <si>
-    <t>Cette fonction sert à récupérer les informations relatives aux oursons, données dans l'API. Après avoir fait la requete fetch, on créé des div pour mettre au bon endroit sur la page les 5 produits, leur nom, leur prix et leur image</t>
-  </si>
-  <si>
     <t>Regarder si tous les produits ont été mis à la bonne place avec les informations demandées</t>
   </si>
   <si>
-    <t>La requête peut être eronnée donc bien faire attention à la syntaxe</t>
-  </si>
-  <si>
     <t>choice.js</t>
   </si>
   <si>
@@ -82,42 +61,24 @@
     <t xml:space="preserve">Cette fonction sert à récupérer uniquement le prooduit sur lequel on a cliqué dans l'index. Donc on se sert d'une requête fetch avec l'id correspondant au produit. On ajoute ensuite une personnalisation grâce aux labels et on formate le prix en euro. </t>
   </si>
   <si>
-    <t xml:space="preserve">S'assurer en cliquant sur "arnold" par exemple que le prix l'image et la description sont conformes. On peut aller jetter un coup d'œil au bakend pour s'en assurer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas bien faire sa requête GET donc bien faire attention à la syntaxe. Et ne pas oublier de formater le prix en euros </t>
-  </si>
-  <si>
     <t>66 à 73</t>
   </si>
   <si>
     <t>addToCart</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette fonction ajoute le produit selectionné dans le panier si l'utilisateur clique sur le bouton "ajouter au panier". On ajoute en fait l'article dans le Local Storage, qui permet de stocker tous les articles selectionnés et qui garde les articles même si on ferme la session. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ouvrir la console, aller dans Application puis dans local storage. On verra alors s'il est vide ou s'il contient quelque chose. </t>
   </si>
   <si>
-    <t xml:space="preserve">Il faut que la quantité ajoutée soit au moins de 1. Sinon cela ne peut pas marcher. Et il n'y aurait pas de création de panier. </t>
-  </si>
-  <si>
     <t>75 à 92</t>
   </si>
   <si>
     <t>addToLocalStorage</t>
   </si>
   <si>
-    <t xml:space="preserve">La fonction créé un tableau de produits dans lequel se trouve tous les oursons selectionnés. Si le LS existe déjà, on ajoute les oursons selectionnés en plus. S'il n'existe pas, on le créé. Sert aussi à convertir la valeur JS en chaîne de caractère JSON. Ce qui est essentiel pour le local storage.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ouvrir la console puis aller dans Application. Regarder si on a tous les id des oursons selectionnés. </t>
   </si>
   <si>
-    <t xml:space="preserve">La gestion de la quantité. Il faut que les mêmes id soient dans le même tableau. Il ne faut pas que ça se transforme en un id un produit. </t>
-  </si>
-  <si>
     <t>cart.js</t>
   </si>
   <si>
@@ -133,54 +94,30 @@
     <t>Regarder sur la page panier si tout se met au bon endroit. Et si plusieurs mêmes oursons sont selectionés, qu'ils se mettent sur la même ligne. Regarder si le bouton supprimer, supprime bien du local storage</t>
   </si>
   <si>
-    <t xml:space="preserve">Que le même produit s'affiche sur plusieurs lignes car il a été sélectionné plusieurs fois. Ou alors qu'un produit ne se supprime pas. </t>
-  </si>
-  <si>
     <t>52 à 59</t>
   </si>
   <si>
     <t>displayTotal</t>
   </si>
   <si>
-    <t>Fonction qui permet d'afficher le total de la commande. C'est dynamique donc il s'actualise lorsqu'un produit est ajouté ou supprimé. On vient multiplier les "price" des oursons avec lesquels on a travaillé dans displayCart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faire un rapide calcul et se rendre compte si la multiplcation a bien été faite. Faire les tests avec le bouton supprimer. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S'il y a plusieurs mêmes oursons selcetionnés, que le total ne se fasse que sur un seul. </t>
-  </si>
-  <si>
     <t>61 à 67</t>
   </si>
   <si>
     <t>clearCart</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette fonction sert à vider le panier. On fait donc un addvenlistener sur le bouton "vider le panier". Et tous les articles précedemment sélectionnés doivent être supprimés. </t>
-  </si>
-  <si>
     <t>Voir que la page de panier s'actualise sans aucun produit. Et regarder si le LS est bien vide</t>
   </si>
   <si>
-    <t xml:space="preserve">Que le panier se vide en théorie sur la page. Mais que le Local storage reste plein. </t>
-  </si>
-  <si>
     <t>69 à 118</t>
   </si>
   <si>
     <t>postRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette fonction sert à faire une requête post pour envoyer les données de contact et d'id à L'API. On récupère les informations du Dom qui sont demandées. L'ortographe doit bien être similaire à celle demandée par le back end. Cf les fichiers backend. On créé un objet de contact avec toutes les informations du client. Puis on créé un tableau avec les id des oursons. On utilise par la suite la méthode POST avecc FETCH. Cette requête contient le contact du client et les id des oursons. Ceci est contenu dans l'objet options. Puis on redirige vers la page de confirmation. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aller dans la console et se rendre compte de si tous les tableaux ont bien été crées. Si tout est conforme, la page de confirmation doit afficher un numéro de commande. </t>
   </si>
   <si>
-    <t xml:space="preserve">Faire très attention à l'ortographe des obejts et des valeurs. Sinon la requête est mauvaise. Et la fin du processus ne peut pas se faire. </t>
-  </si>
-  <si>
     <t>confirmation.js</t>
   </si>
   <si>
@@ -190,13 +127,79 @@
     <t>displayOrderId</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette fonction affiche le numéro d'id de la commande. Et vide le Local Storage pour recommencer le processus d'achat. Après la requête post, le backend nous renvoie l'id de la commande si les objets envoyés étaient bons. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afficher sur une page une div qui contient l'orderID. S'il y a marqué undifined c'est qu'il y a un problème. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que le local storage ne se vide pas et que cela perturbe le prochain processus d'achat. </t>
+    <t>displayArticles</t>
+  </si>
+  <si>
+    <t>Consomme l'API par le biais d'une requête fetch au niveau du endpoint http://localhost:3000/api/teddies. Cette requête retourne le tableau des oursons si tout s'est bien passé. (code http 200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancer l'index en étant sur le port 3000 et en ne l'étant pas comme ça on voit si le message s'affiche correctement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porblème avec l'api qui n'est pas accessible, la liste des résultats n'est pas retournée. </t>
+  </si>
+  <si>
+    <t>Après avoir fait la requete fetch, on manipule le DOM pour créer des éléments HTML et des balises et les remplir de contenu. Grâce au résultat de getArticles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'api n'est pas accessible, donc pas d'articles retournées. Donc on ne peut manipuler le DOM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S'assurer en cliquant sur "arnold" par exemple que le prix l'image et la description sont conformes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une manipulation de l'URL par l'utilisateur et du coup le ocntenu ne s'affiche pas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si une manipulation d'URL a été effectuée et aue le produit n'es tpas affiché, on ne peut l'ajouter au panier.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction ajoute le produit selectionné dans le panier si l'utilisateur clique sur le bouton "ajouter au panier". On appelle la fonction addToLocalStorage pour enregistrer le produit dans le panier. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fonction ajoute le produit dans le LS. Ou modifie sa quantité s'il est déjà présent.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si une manipulation d'URL a été effectuée et aue le produit n'es tpas affiché, on ne peut l'ajouter au panier. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction qui permet d'afficher le total de la commande. On l'appelle au moment de l'affichage et lorsqu'un produit est supprimé ou ajouté, pour que l'affichage soit dynamique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que le calcul est bon. Faire les tests avec le bouton supprimer. </t>
+  </si>
+  <si>
+    <t>L'utilisateur peut manipuler le LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'utilisateur peut manipuler le LS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction sert à vider le panier. On fait donc un addvenlistener sur le bouton "vider le panier". Et tous les articles précedemment sélectionnés doivent être supprimés. Le LS est vidé aussi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction sert à faire une requête post pour envoyer les données de contact et des products.id à L'API. On récupère les informations du formulaire qui sont demandées. On récupères les id de chaque produit présent dans le panier. On utilise par la suite la méthode POST avecc FETCH en lui passant les infos précédentes. Puis on redirige vers la page de confirmation. </t>
+  </si>
+  <si>
+    <t>L'utilisateur peut manipuler le LS et envoyer de mauaises infos et manipuler le formulaire pour envoyer de mauvaises infos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette fonction affiche le numéro d'id de la commande. Et vide le Local Storage pour recommencer le processus d'achat. </t>
+  </si>
+  <si>
+    <t>L'orderID s'affiche bien dans la div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que le local storage ne se vide pas et que cela perturbe le prochain processus d'achat. L'utilisateur peut remettre des clefs/valeurs dans le LS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utilisateur remet des celfs/valeurs dans le LS. </t>
+  </si>
+  <si>
+    <t>41 à 58</t>
+  </si>
+  <si>
+    <t>6 à 39</t>
   </si>
 </sst>
 </file>
@@ -487,9 +490,9 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -552,19 +555,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -572,179 +575,179 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="137.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmca\Desktop\open c\EmmaCariot_5_18062021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F245623-7442-4706-840D-3C485B5CEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67819F-9C24-410E-BE3D-F29BBE01355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,9 +490,9 @@
   </sheetPr>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
